--- a/excel/counties.xlsx
+++ b/excel/counties.xlsx
@@ -1184,7 +1184,7 @@
     <t>سور الغزلان</t>
   </si>
   <si>
-    <t>Timimoun (wilaya déléguée)</t>
+    <t>Timimoun (delegate state)</t>
   </si>
   <si>
     <t>تيميمون (ولاية منتدبة)</t>
@@ -1214,7 +1214,7 @@
     <t>عين قزام</t>
   </si>
   <si>
-    <t>Ain guezzam (wilaya déléguée)</t>
+    <t>Ain guezzam (delegate state)</t>
   </si>
   <si>
     <t>عين قزام (ولاية منتدبة)</t>
@@ -1238,7 +1238,7 @@
     <t>عين صالح</t>
   </si>
   <si>
-    <t>Ain salah (wilaya déléguée)</t>
+    <t>Ain salah (delegate state)</t>
   </si>
   <si>
     <t>عين صالح (ولاية منتدبة)</t>
@@ -1316,7 +1316,7 @@
     <t>أم علي</t>
   </si>
   <si>
-    <t>Bordj badji mokhtar (wilaya déléguée)</t>
+    <t>Bordj badji mokhtar (delegate state)</t>
   </si>
   <si>
     <t>برج باجي مختار (ولاية منتدبة)</t>
@@ -2708,7 +2708,7 @@
     <t>سيدي خويلد</t>
   </si>
   <si>
-    <t>Touggourt (wilaya déléguée)</t>
+    <t>Touggourt (delegate state)</t>
   </si>
   <si>
     <t>تقرت</t>
@@ -2864,7 +2864,7 @@
     <t>جانت</t>
   </si>
   <si>
-    <t>Djanet (wilaya déléguée)</t>
+    <t>Djanet (delegate state)</t>
   </si>
   <si>
     <t>جانت (ولاية منتدبة)</t>
@@ -3143,7 +3143,7 @@
     <t>اميه وانسة</t>
   </si>
   <si>
-    <t>El meghaier (wilaya déléguée)</t>
+    <t>El meghaier (delegate state)</t>
   </si>
   <si>
     <t>المغير</t>
@@ -3593,7 +3593,7 @@
     <t>المنيعة</t>
   </si>
   <si>
-    <t>El menia (wilaya déléguée)</t>
+    <t>El menia (delegate state)</t>
   </si>
   <si>
     <t>المنيعة (ولاية منتدبة)</t>
@@ -3713,13 +3713,13 @@
     <t>منداس</t>
   </si>
   <si>
-    <t>Ouled djellal (wilaya déléguée)</t>
+    <t>Ouled djellal (delegate state)</t>
   </si>
   <si>
     <t>أولاد جلال (ولاية منتدبة)</t>
   </si>
   <si>
-    <t>Beni abbes (wilaya déléguée)</t>
+    <t>Beni abbes (delegate state)</t>
   </si>
   <si>
     <t>بني عباس (ولاية منتدبة)</t>

--- a/excel/counties.xlsx
+++ b/excel/counties.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1245">
   <si>
     <t>id</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>ar_name</t>
+  </si>
+  <si>
+    <t>state_code</t>
   </si>
   <si>
     <t>0101</t>
@@ -4106,22 +4109,25 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4129,16 +4135,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4146,16 +4152,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4163,16 +4169,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4180,16 +4186,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4197,16 +4203,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -4214,16 +4220,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -4231,16 +4237,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -4248,16 +4254,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -4265,16 +4271,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -4282,16 +4288,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -4299,16 +4305,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -4316,16 +4322,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -4333,16 +4339,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -4350,16 +4356,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4367,16 +4373,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4384,16 +4390,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -4401,16 +4407,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4418,16 +4424,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4435,16 +4441,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4452,16 +4458,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4469,16 +4475,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -4486,16 +4492,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -4503,16 +4509,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -4520,16 +4526,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -4537,16 +4543,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4554,16 +4560,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4571,16 +4577,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" t="s">
         <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>87</v>
-      </c>
-      <c r="D29" t="s">
-        <v>88</v>
-      </c>
-      <c r="E29" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4588,16 +4594,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4605,16 +4611,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -4622,16 +4628,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -4639,16 +4645,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4656,16 +4662,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4673,16 +4679,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -4690,16 +4696,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D36" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -4707,16 +4713,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -4724,16 +4730,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -4741,16 +4747,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" t="s">
+        <v>119</v>
+      </c>
+      <c r="D39" t="s">
+        <v>120</v>
+      </c>
+      <c r="E39" t="s">
         <v>117</v>
-      </c>
-      <c r="C39" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -4758,16 +4764,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -4775,16 +4781,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -4792,16 +4798,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D42" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -4809,16 +4815,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E43" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -4826,16 +4832,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -4843,16 +4849,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D45" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E45" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -4860,16 +4866,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C46" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -4877,16 +4883,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C47" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -4894,16 +4900,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C48" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4911,16 +4917,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C49" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4928,16 +4934,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C50" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4945,16 +4951,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s">
+        <v>157</v>
+      </c>
+      <c r="E51" t="s">
         <v>154</v>
-      </c>
-      <c r="C51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51" t="s">
-        <v>156</v>
-      </c>
-      <c r="E51" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -4962,16 +4968,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -4979,16 +4985,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E53" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -4996,16 +5002,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -5013,16 +5019,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -5030,16 +5036,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E56" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -5047,16 +5053,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E57" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -5064,16 +5070,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C58" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E58" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -5081,16 +5087,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E59" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -5098,16 +5104,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E60" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -5115,16 +5121,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E61" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -5132,16 +5138,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -5149,16 +5155,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E63" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -5166,16 +5172,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -5183,16 +5189,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D65" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E65" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -5200,16 +5206,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -5217,16 +5223,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E67" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -5234,16 +5240,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -5251,16 +5257,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -5268,16 +5274,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E70" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -5285,16 +5291,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -5302,16 +5308,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
+        <v>219</v>
+      </c>
+      <c r="C72" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>221</v>
+      </c>
+      <c r="E72" t="s">
         <v>218</v>
-      </c>
-      <c r="C72" t="s">
-        <v>219</v>
-      </c>
-      <c r="D72" t="s">
-        <v>220</v>
-      </c>
-      <c r="E72" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -5319,16 +5325,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -5336,16 +5342,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D74" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -5353,16 +5359,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C75" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -5370,16 +5376,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C76" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E76" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -5387,16 +5393,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E77" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -5404,16 +5410,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D78" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E78" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -5421,16 +5427,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D79" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E79" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -5438,16 +5444,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C80" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D80" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -5455,16 +5461,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C81" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D81" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -5472,16 +5478,16 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C82" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D82" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -5489,16 +5495,16 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C83" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -5506,16 +5512,16 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C84" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D84" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -5523,16 +5529,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C85" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D85" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E85" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -5540,16 +5546,16 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C86" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D86" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -5557,16 +5563,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C87" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -5574,16 +5580,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -5591,16 +5597,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C89" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D89" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -5608,16 +5614,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C90" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D90" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E90" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -5625,16 +5631,16 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" t="s">
+        <v>278</v>
+      </c>
+      <c r="D91" t="s">
+        <v>279</v>
+      </c>
+      <c r="E91" t="s">
         <v>276</v>
-      </c>
-      <c r="C91" t="s">
-        <v>277</v>
-      </c>
-      <c r="D91" t="s">
-        <v>278</v>
-      </c>
-      <c r="E91" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -5642,16 +5648,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" t="s">
+        <v>281</v>
+      </c>
+      <c r="E92" t="s">
         <v>276</v>
-      </c>
-      <c r="C92" t="s">
-        <v>279</v>
-      </c>
-      <c r="D92" t="s">
-        <v>280</v>
-      </c>
-      <c r="E92" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -5659,16 +5665,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D93" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E93" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -5676,16 +5682,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -5693,16 +5699,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D95" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -5710,16 +5716,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D96" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -5727,16 +5733,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C97" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -5744,16 +5750,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C98" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D98" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -5761,16 +5767,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C99" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D99" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -5778,16 +5784,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C100" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D100" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -5795,16 +5801,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D101" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E101" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -5812,16 +5818,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C102" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D102" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -5829,16 +5835,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C103" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D103" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E103" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -5846,16 +5852,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
+        <v>316</v>
+      </c>
+      <c r="C104" t="s">
+        <v>317</v>
+      </c>
+      <c r="D104" t="s">
+        <v>318</v>
+      </c>
+      <c r="E104" t="s">
         <v>315</v>
-      </c>
-      <c r="C104" t="s">
-        <v>316</v>
-      </c>
-      <c r="D104" t="s">
-        <v>317</v>
-      </c>
-      <c r="E104" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -5863,16 +5869,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C105" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E105" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -5880,16 +5886,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C106" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -5897,16 +5903,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C107" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D107" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E107" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -5914,16 +5920,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C108" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E108" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -5931,16 +5937,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C109" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D109" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="E109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -5948,16 +5954,16 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D110" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E110" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -5965,16 +5971,16 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D111" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E111" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -5982,16 +5988,16 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C112" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D112" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E112" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -5999,16 +6005,16 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C113" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D113" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E113" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -6016,16 +6022,16 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C114" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D114" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="E114" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -6033,16 +6039,16 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C115" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D115" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E115" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -6050,16 +6056,16 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C116" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D116" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E116" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -6067,16 +6073,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117" t="s">
+        <v>356</v>
+      </c>
+      <c r="D117" t="s">
+        <v>357</v>
+      </c>
+      <c r="E117" t="s">
         <v>354</v>
-      </c>
-      <c r="C117" t="s">
-        <v>355</v>
-      </c>
-      <c r="D117" t="s">
-        <v>356</v>
-      </c>
-      <c r="E117" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -6084,16 +6090,16 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C118" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D118" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E118" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -6101,16 +6107,16 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C119" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D119" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -6118,16 +6124,16 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C120" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D120" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E120" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -6135,16 +6141,16 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C121" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D121" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E121" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -6152,16 +6158,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C122" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D122" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -6169,16 +6175,16 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C123" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D123" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E123" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -6186,16 +6192,16 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D124" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E124" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -6203,16 +6209,16 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C125" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D125" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E125" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -6223,10 +6229,10 @@
         <v>1001</v>
       </c>
       <c r="C126" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E126">
         <v>10</v>
@@ -6240,10 +6246,10 @@
         <v>1004</v>
       </c>
       <c r="C127" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D127" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E127">
         <v>10</v>
@@ -6257,10 +6263,10 @@
         <v>1005</v>
       </c>
       <c r="C128" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D128" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E128">
         <v>10</v>
@@ -6274,10 +6280,10 @@
         <v>1012</v>
       </c>
       <c r="C129" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D129" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E129">
         <v>10</v>
@@ -6291,10 +6297,10 @@
         <v>1013</v>
       </c>
       <c r="C130" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D130" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E130">
         <v>10</v>
@@ -6308,10 +6314,10 @@
         <v>1015</v>
       </c>
       <c r="C131" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D131" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E131">
         <v>10</v>
@@ -6325,10 +6331,10 @@
         <v>1018</v>
       </c>
       <c r="C132" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D132" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E132">
         <v>10</v>
@@ -6342,10 +6348,10 @@
         <v>1033</v>
       </c>
       <c r="C133" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D133" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E133">
         <v>10</v>
@@ -6359,10 +6365,10 @@
         <v>1035</v>
       </c>
       <c r="C134" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D134" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E134">
         <v>10</v>
@@ -6376,10 +6382,10 @@
         <v>1036</v>
       </c>
       <c r="C135" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D135" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E135">
         <v>10</v>
@@ -6393,10 +6399,10 @@
         <v>1037</v>
       </c>
       <c r="C136" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D136" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E136">
         <v>10</v>
@@ -6410,10 +6416,10 @@
         <v>1038</v>
       </c>
       <c r="C137" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E137">
         <v>10</v>
@@ -6427,10 +6433,10 @@
         <v>1101</v>
       </c>
       <c r="C138" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E138">
         <v>11</v>
@@ -6444,10 +6450,10 @@
         <v>1102</v>
       </c>
       <c r="C139" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D139" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E139">
         <v>11</v>
@@ -6461,10 +6467,10 @@
         <v>1103</v>
       </c>
       <c r="C140" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D140" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="E140">
         <v>11</v>
@@ -6478,10 +6484,10 @@
         <v>1104</v>
       </c>
       <c r="C141" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D141" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="E141">
         <v>11</v>
@@ -6495,10 +6501,10 @@
         <v>1104</v>
       </c>
       <c r="C142" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D142" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E142">
         <v>11</v>
@@ -6512,10 +6518,10 @@
         <v>1106</v>
       </c>
       <c r="C143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D143" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E143">
         <v>11</v>
@@ -6529,10 +6535,10 @@
         <v>1107</v>
       </c>
       <c r="C144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D144" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E144">
         <v>11</v>
@@ -6546,10 +6552,10 @@
         <v>1108</v>
       </c>
       <c r="C145" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D145" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E145">
         <v>11</v>
@@ -6563,10 +6569,10 @@
         <v>1108</v>
       </c>
       <c r="C146" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D146" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="E146">
         <v>11</v>
@@ -6580,10 +6586,10 @@
         <v>1201</v>
       </c>
       <c r="C147" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D147" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="E147">
         <v>12</v>
@@ -6597,10 +6603,10 @@
         <v>1202</v>
       </c>
       <c r="C148" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="E148">
         <v>12</v>
@@ -6614,10 +6620,10 @@
         <v>1203</v>
       </c>
       <c r="C149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E149">
         <v>12</v>
@@ -6631,10 +6637,10 @@
         <v>1205</v>
       </c>
       <c r="C150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D150" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E150">
         <v>12</v>
@@ -6648,10 +6654,10 @@
         <v>1209</v>
       </c>
       <c r="C151" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D151" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E151">
         <v>12</v>
@@ -6665,10 +6671,10 @@
         <v>1210</v>
       </c>
       <c r="C152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="E152">
         <v>12</v>
@@ -6682,10 +6688,10 @@
         <v>1211</v>
       </c>
       <c r="C153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D153" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="E153">
         <v>12</v>
@@ -6699,10 +6705,10 @@
         <v>1212</v>
       </c>
       <c r="C154" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E154">
         <v>12</v>
@@ -6716,10 +6722,10 @@
         <v>1213</v>
       </c>
       <c r="C155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E155">
         <v>12</v>
@@ -6733,10 +6739,10 @@
         <v>1219</v>
       </c>
       <c r="C156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D156" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E156">
         <v>12</v>
@@ -6750,10 +6756,10 @@
         <v>1220</v>
       </c>
       <c r="C157" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D157" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E157">
         <v>12</v>
@@ -6767,10 +6773,10 @@
         <v>1221</v>
       </c>
       <c r="C158" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D158" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E158">
         <v>12</v>
@@ -6784,10 +6790,10 @@
         <v>1301</v>
       </c>
       <c r="C159" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D159" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E159">
         <v>13</v>
@@ -6801,10 +6807,10 @@
         <v>1303</v>
       </c>
       <c r="C160" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D160" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E160">
         <v>13</v>
@@ -6818,10 +6824,10 @@
         <v>1304</v>
       </c>
       <c r="C161" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D161" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E161">
         <v>13</v>
@@ -6835,10 +6841,10 @@
         <v>1306</v>
       </c>
       <c r="C162" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D162" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E162">
         <v>13</v>
@@ -6852,10 +6858,10 @@
         <v>1307</v>
       </c>
       <c r="C163" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D163" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E163">
         <v>13</v>
@@ -6869,10 +6875,10 @@
         <v>1313</v>
       </c>
       <c r="C164" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D164" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E164">
         <v>13</v>
@@ -6886,10 +6892,10 @@
         <v>1317</v>
       </c>
       <c r="C165" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D165" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E165">
         <v>13</v>
@@ -6903,10 +6909,10 @@
         <v>1318</v>
       </c>
       <c r="C166" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D166" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E166">
         <v>13</v>
@@ -6920,10 +6926,10 @@
         <v>1320</v>
       </c>
       <c r="C167" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D167" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E167">
         <v>13</v>
@@ -6937,10 +6943,10 @@
         <v>1324</v>
       </c>
       <c r="C168" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D168" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E168">
         <v>13</v>
@@ -6954,10 +6960,10 @@
         <v>1326</v>
       </c>
       <c r="C169" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D169" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E169">
         <v>13</v>
@@ -6971,10 +6977,10 @@
         <v>1327</v>
       </c>
       <c r="C170" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D170" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E170">
         <v>13</v>
@@ -6988,10 +6994,10 @@
         <v>1335</v>
       </c>
       <c r="C171" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D171" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E171">
         <v>13</v>
@@ -7005,10 +7011,10 @@
         <v>1338</v>
       </c>
       <c r="C172" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D172" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E172">
         <v>13</v>
@@ -7022,10 +7028,10 @@
         <v>1339</v>
       </c>
       <c r="C173" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D173" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E173">
         <v>13</v>
@@ -7039,10 +7045,10 @@
         <v>1340</v>
       </c>
       <c r="C174" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D174" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E174">
         <v>13</v>
@@ -7056,10 +7062,10 @@
         <v>1341</v>
       </c>
       <c r="C175" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D175" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E175">
         <v>13</v>
@@ -7073,10 +7079,10 @@
         <v>1344</v>
       </c>
       <c r="C176" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D176" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E176">
         <v>13</v>
@@ -7090,10 +7096,10 @@
         <v>1350</v>
       </c>
       <c r="C177" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D177" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E177">
         <v>13</v>
@@ -7107,10 +7113,10 @@
         <v>1351</v>
       </c>
       <c r="C178" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D178" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E178">
         <v>13</v>
@@ -7124,10 +7130,10 @@
         <v>1401</v>
       </c>
       <c r="C179" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D179" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E179">
         <v>14</v>
@@ -7141,10 +7147,10 @@
         <v>1402</v>
       </c>
       <c r="C180" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D180" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E180">
         <v>14</v>
@@ -7158,10 +7164,10 @@
         <v>1406</v>
       </c>
       <c r="C181" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D181" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E181">
         <v>14</v>
@@ -7175,10 +7181,10 @@
         <v>1413</v>
       </c>
       <c r="C182" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D182" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E182">
         <v>14</v>
@@ -7192,10 +7198,10 @@
         <v>1414</v>
       </c>
       <c r="C183" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D183" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E183">
         <v>14</v>
@@ -7209,10 +7215,10 @@
         <v>1415</v>
       </c>
       <c r="C184" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D184" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E184">
         <v>14</v>
@@ -7226,10 +7232,10 @@
         <v>1416</v>
       </c>
       <c r="C185" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D185" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E185">
         <v>14</v>
@@ -7243,10 +7249,10 @@
         <v>1421</v>
       </c>
       <c r="C186" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D186" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E186">
         <v>14</v>
@@ -7260,10 +7266,10 @@
         <v>1427</v>
       </c>
       <c r="C187" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D187" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E187">
         <v>14</v>
@@ -7277,10 +7283,10 @@
         <v>1428</v>
       </c>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D188" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E188">
         <v>14</v>
@@ -7294,10 +7300,10 @@
         <v>1429</v>
       </c>
       <c r="C189" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D189" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E189">
         <v>14</v>
@@ -7311,10 +7317,10 @@
         <v>1433</v>
       </c>
       <c r="C190" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D190" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E190">
         <v>14</v>
@@ -7328,10 +7334,10 @@
         <v>1434</v>
       </c>
       <c r="C191" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D191" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E191">
         <v>14</v>
@@ -7345,10 +7351,10 @@
         <v>1435</v>
       </c>
       <c r="C192" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D192" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E192">
         <v>14</v>
@@ -7362,10 +7368,10 @@
         <v>1501</v>
       </c>
       <c r="C193" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D193" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E193">
         <v>15</v>
@@ -7379,10 +7385,10 @@
         <v>1502</v>
       </c>
       <c r="C194" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D194" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E194">
         <v>15</v>
@@ -7396,10 +7402,10 @@
         <v>1509</v>
       </c>
       <c r="C195" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D195" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E195">
         <v>15</v>
@@ -7413,10 +7419,10 @@
         <v>1510</v>
       </c>
       <c r="C196" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D196" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E196">
         <v>15</v>
@@ -7430,10 +7436,10 @@
         <v>1511</v>
       </c>
       <c r="C197" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D197" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E197">
         <v>15</v>
@@ -7447,10 +7453,10 @@
         <v>1517</v>
       </c>
       <c r="C198" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D198" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E198">
         <v>15</v>
@@ -7464,10 +7470,10 @@
         <v>1518</v>
       </c>
       <c r="C199" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D199" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E199">
         <v>15</v>
@@ -7481,10 +7487,10 @@
         <v>1521</v>
       </c>
       <c r="C200" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D200" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E200">
         <v>15</v>
@@ -7498,10 +7504,10 @@
         <v>1522</v>
       </c>
       <c r="C201" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D201" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="E201">
         <v>15</v>
@@ -7515,10 +7521,10 @@
         <v>1524</v>
       </c>
       <c r="C202" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D202" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E202">
         <v>15</v>
@@ -7532,10 +7538,10 @@
         <v>1529</v>
       </c>
       <c r="C203" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D203" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="E203">
         <v>15</v>
@@ -7549,10 +7555,10 @@
         <v>1532</v>
       </c>
       <c r="C204" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D204" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E204">
         <v>15</v>
@@ -7566,10 +7572,10 @@
         <v>1534</v>
       </c>
       <c r="C205" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D205" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="E205">
         <v>15</v>
@@ -7583,10 +7589,10 @@
         <v>1536</v>
       </c>
       <c r="C206" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D206" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="E206">
         <v>15</v>
@@ -7600,10 +7606,10 @@
         <v>1537</v>
       </c>
       <c r="C207" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D207" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E207">
         <v>15</v>
@@ -7617,10 +7623,10 @@
         <v>1538</v>
       </c>
       <c r="C208" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D208" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E208">
         <v>15</v>
@@ -7634,10 +7640,10 @@
         <v>1540</v>
       </c>
       <c r="C209" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D209" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E209">
         <v>15</v>
@@ -7651,10 +7657,10 @@
         <v>1547</v>
       </c>
       <c r="C210" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D210" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E210">
         <v>15</v>
@@ -7668,10 +7674,10 @@
         <v>1548</v>
       </c>
       <c r="C211" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D211" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E211">
         <v>15</v>
@@ -7685,10 +7691,10 @@
         <v>1550</v>
       </c>
       <c r="C212" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D212" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E212">
         <v>15</v>
@@ -7702,10 +7708,10 @@
         <v>1552</v>
       </c>
       <c r="C213" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D213" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="E213">
         <v>15</v>
@@ -7719,10 +7725,10 @@
         <v>1602</v>
       </c>
       <c r="C214" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D214" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="E214">
         <v>16</v>
@@ -7736,10 +7742,10 @@
         <v>1605</v>
       </c>
       <c r="C215" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D215" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="E215">
         <v>16</v>
@@ -7753,10 +7759,10 @@
         <v>1609</v>
       </c>
       <c r="C216" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D216" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E216">
         <v>16</v>
@@ -7770,10 +7776,10 @@
         <v>1611</v>
       </c>
       <c r="C217" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D217" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="E217">
         <v>16</v>
@@ -7787,10 +7793,10 @@
         <v>1613</v>
       </c>
       <c r="C218" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D218" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="E218">
         <v>16</v>
@@ -7804,10 +7810,10 @@
         <v>1614</v>
       </c>
       <c r="C219" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D219" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="E219">
         <v>16</v>
@@ -7821,10 +7827,10 @@
         <v>1617</v>
       </c>
       <c r="C220" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D220" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="E220">
         <v>16</v>
@@ -7838,10 +7844,10 @@
         <v>1620</v>
       </c>
       <c r="C221" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D221" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E221">
         <v>16</v>
@@ -7855,10 +7861,10 @@
         <v>1636</v>
       </c>
       <c r="C222" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D222" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E222">
         <v>16</v>
@@ -7872,10 +7878,10 @@
         <v>1638</v>
       </c>
       <c r="C223" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D223" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E223">
         <v>16</v>
@@ -7889,10 +7895,10 @@
         <v>1644</v>
       </c>
       <c r="C224" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D224" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E224">
         <v>16</v>
@@ -7906,10 +7912,10 @@
         <v>1649</v>
       </c>
       <c r="C225" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D225" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E225">
         <v>16</v>
@@ -7923,10 +7929,10 @@
         <v>1652</v>
       </c>
       <c r="C226" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D226" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E226">
         <v>16</v>
@@ -7940,10 +7946,10 @@
         <v>1701</v>
       </c>
       <c r="C227" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D227" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="E227">
         <v>17</v>
@@ -7957,10 +7963,10 @@
         <v>1704</v>
       </c>
       <c r="C228" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D228" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="E228">
         <v>17</v>
@@ -7974,10 +7980,10 @@
         <v>1707</v>
       </c>
       <c r="C229" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D229" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="E229">
         <v>17</v>
@@ -7991,10 +7997,10 @@
         <v>1708</v>
       </c>
       <c r="C230" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D230" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="E230">
         <v>17</v>
@@ -8008,10 +8014,10 @@
         <v>1714</v>
       </c>
       <c r="C231" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D231" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="E231">
         <v>17</v>
@@ -8025,10 +8031,10 @@
         <v>1717</v>
       </c>
       <c r="C232" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D232" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E232">
         <v>17</v>
@@ -8042,10 +8048,10 @@
         <v>1719</v>
       </c>
       <c r="C233" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D233" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="E233">
         <v>17</v>
@@ -8059,10 +8065,10 @@
         <v>1720</v>
       </c>
       <c r="C234" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D234" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E234">
         <v>17</v>
@@ -8076,10 +8082,10 @@
         <v>1725</v>
       </c>
       <c r="C235" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D235" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="E235">
         <v>17</v>
@@ -8093,10 +8099,10 @@
         <v>1726</v>
       </c>
       <c r="C236" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D236" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="E236">
         <v>17</v>
@@ -8110,10 +8116,10 @@
         <v>1730</v>
       </c>
       <c r="C237" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D237" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E237">
         <v>17</v>
@@ -8127,10 +8133,10 @@
         <v>1731</v>
       </c>
       <c r="C238" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D238" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E238">
         <v>17</v>
@@ -8144,10 +8150,10 @@
         <v>1801</v>
       </c>
       <c r="C239" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D239" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E239">
         <v>18</v>
@@ -8161,10 +8167,10 @@
         <v>1803</v>
       </c>
       <c r="C240" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D240" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E240">
         <v>18</v>
@@ -8178,10 +8184,10 @@
         <v>1804</v>
       </c>
       <c r="C241" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D241" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="E241">
         <v>18</v>
@@ -8195,10 +8201,10 @@
         <v>1805</v>
       </c>
       <c r="C242" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D242" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="E242">
         <v>18</v>
@@ -8212,10 +8218,10 @@
         <v>1807</v>
       </c>
       <c r="C243" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D243" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E243">
         <v>18</v>
@@ -8229,10 +8235,10 @@
         <v>1809</v>
       </c>
       <c r="C244" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D244" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="E244">
         <v>18</v>
@@ -8246,10 +8252,10 @@
         <v>1810</v>
       </c>
       <c r="C245" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D245" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E245">
         <v>18</v>
@@ -8263,10 +8269,10 @@
         <v>1811</v>
       </c>
       <c r="C246" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D246" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E246">
         <v>18</v>
@@ -8280,10 +8286,10 @@
         <v>1812</v>
       </c>
       <c r="C247" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D247" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E247">
         <v>18</v>
@@ -8297,10 +8303,10 @@
         <v>1817</v>
       </c>
       <c r="C248" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D248" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E248">
         <v>18</v>
@@ -8314,10 +8320,10 @@
         <v>1824</v>
       </c>
       <c r="C249" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D249" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="E249">
         <v>18</v>
@@ -8331,10 +8337,10 @@
         <v>1901</v>
       </c>
       <c r="C250" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D250" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E250">
         <v>19</v>
@@ -8348,10 +8354,10 @@
         <v>1902</v>
       </c>
       <c r="C251" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D251" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E251">
         <v>19</v>
@@ -8365,10 +8371,10 @@
         <v>1903</v>
       </c>
       <c r="C252" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D252" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="E252">
         <v>19</v>
@@ -8382,10 +8388,10 @@
         <v>1908</v>
       </c>
       <c r="C253" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D253" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="E253">
         <v>19</v>
@@ -8399,10 +8405,10 @@
         <v>1916</v>
       </c>
       <c r="C254" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D254" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="E254">
         <v>19</v>
@@ -8416,10 +8422,10 @@
         <v>1917</v>
       </c>
       <c r="C255" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D255" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="E255">
         <v>19</v>
@@ -8433,10 +8439,10 @@
         <v>1920</v>
       </c>
       <c r="C256" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D256" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="E256">
         <v>19</v>
@@ -8450,10 +8456,10 @@
         <v>1921</v>
       </c>
       <c r="C257" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D257" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="E257">
         <v>19</v>
@@ -8467,10 +8473,10 @@
         <v>1922</v>
       </c>
       <c r="C258" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D258" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E258">
         <v>19</v>
@@ -8484,10 +8490,10 @@
         <v>1926</v>
       </c>
       <c r="C259" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D259" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E259">
         <v>19</v>
@@ -8501,10 +8507,10 @@
         <v>1927</v>
       </c>
       <c r="C260" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D260" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E260">
         <v>19</v>
@@ -8518,10 +8524,10 @@
         <v>1928</v>
       </c>
       <c r="C261" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D261" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="E261">
         <v>19</v>
@@ -8535,10 +8541,10 @@
         <v>1930</v>
       </c>
       <c r="C262" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D262" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E262">
         <v>19</v>
@@ -8552,10 +8558,10 @@
         <v>1932</v>
       </c>
       <c r="C263" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D263" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E263">
         <v>19</v>
@@ -8569,10 +8575,10 @@
         <v>1939</v>
       </c>
       <c r="C264" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D264" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E264">
         <v>19</v>
@@ -8586,10 +8592,10 @@
         <v>1940</v>
       </c>
       <c r="C265" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D265" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="E265">
         <v>19</v>
@@ -8603,10 +8609,10 @@
         <v>1941</v>
       </c>
       <c r="C266" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D266" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E266">
         <v>19</v>
@@ -8620,10 +8626,10 @@
         <v>1943</v>
       </c>
       <c r="C267" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D267" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E267">
         <v>19</v>
@@ -8637,10 +8643,10 @@
         <v>1950</v>
       </c>
       <c r="C268" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D268" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="E268">
         <v>19</v>
@@ -8654,10 +8660,10 @@
         <v>1955</v>
       </c>
       <c r="C269" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D269" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="E269">
         <v>19</v>
@@ -8671,10 +8677,10 @@
         <v>2001</v>
       </c>
       <c r="C270" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D270" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E270">
         <v>20</v>
@@ -8688,10 +8694,10 @@
         <v>2003</v>
       </c>
       <c r="C271" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D271" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="E271">
         <v>20</v>
@@ -8705,10 +8711,10 @@
         <v>2006</v>
       </c>
       <c r="C272" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D272" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E272">
         <v>20</v>
@@ -8722,10 +8728,10 @@
         <v>2009</v>
       </c>
       <c r="C273" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D273" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="E273">
         <v>20</v>
@@ -8739,10 +8745,10 @@
         <v>2010</v>
       </c>
       <c r="C274" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D274" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="E274">
         <v>20</v>
@@ -8756,10 +8762,10 @@
         <v>2014</v>
       </c>
       <c r="C275" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D275" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E275">
         <v>20</v>
@@ -8773,10 +8779,10 @@
         <v>2101</v>
       </c>
       <c r="C276" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D276" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="E276">
         <v>21</v>
@@ -8790,10 +8796,10 @@
         <v>2103</v>
       </c>
       <c r="C277" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D277" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="E277">
         <v>21</v>
@@ -8807,10 +8813,10 @@
         <v>2104</v>
       </c>
       <c r="C278" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D278" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="E278">
         <v>21</v>
@@ -8824,10 +8830,10 @@
         <v>2108</v>
       </c>
       <c r="C279" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D279" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E279">
         <v>21</v>
@@ -8841,10 +8847,10 @@
         <v>2110</v>
       </c>
       <c r="C280" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D280" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E280">
         <v>21</v>
@@ -8858,10 +8864,10 @@
         <v>2113</v>
       </c>
       <c r="C281" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D281" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E281">
         <v>21</v>
@@ -8875,10 +8881,10 @@
         <v>2115</v>
       </c>
       <c r="C282" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D282" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="E282">
         <v>21</v>
@@ -8892,10 +8898,10 @@
         <v>2116</v>
       </c>
       <c r="C283" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D283" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="E283">
         <v>21</v>
@@ -8909,10 +8915,10 @@
         <v>2119</v>
       </c>
       <c r="C284" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D284" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="E284">
         <v>21</v>
@@ -8926,10 +8932,10 @@
         <v>2123</v>
       </c>
       <c r="C285" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D285" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="E285">
         <v>21</v>
@@ -8943,10 +8949,10 @@
         <v>2126</v>
       </c>
       <c r="C286" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D286" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="E286">
         <v>21</v>
@@ -8960,10 +8966,10 @@
         <v>2127</v>
       </c>
       <c r="C287" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D287" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E287">
         <v>21</v>
@@ -8977,10 +8983,10 @@
         <v>2128</v>
       </c>
       <c r="C288" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D288" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E288">
         <v>21</v>
@@ -8994,10 +9000,10 @@
         <v>2201</v>
       </c>
       <c r="C289" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D289" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="E289">
         <v>22</v>
@@ -9011,10 +9017,10 @@
         <v>2202</v>
       </c>
       <c r="C290" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="D290" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="E290">
         <v>22</v>
@@ -9028,10 +9034,10 @@
         <v>2204</v>
       </c>
       <c r="C291" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="D291" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="E291">
         <v>22</v>
@@ -9045,10 +9051,10 @@
         <v>2205</v>
       </c>
       <c r="C292" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D292" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E292">
         <v>22</v>
@@ -9062,10 +9068,10 @@
         <v>2208</v>
       </c>
       <c r="C293" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D293" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="E293">
         <v>22</v>
@@ -9079,10 +9085,10 @@
         <v>2210</v>
       </c>
       <c r="C294" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D294" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="E294">
         <v>22</v>
@@ -9096,10 +9102,10 @@
         <v>2214</v>
       </c>
       <c r="C295" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D295" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E295">
         <v>22</v>
@@ -9113,10 +9119,10 @@
         <v>2217</v>
       </c>
       <c r="C296" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D296" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="E296">
         <v>22</v>
@@ -9130,10 +9136,10 @@
         <v>2218</v>
       </c>
       <c r="C297" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D297" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="E297">
         <v>22</v>
@@ -9147,10 +9153,10 @@
         <v>2222</v>
       </c>
       <c r="C298" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D298" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E298">
         <v>22</v>
@@ -9164,10 +9170,10 @@
         <v>2223</v>
       </c>
       <c r="C299" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D299" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="E299">
         <v>22</v>
@@ -9181,10 +9187,10 @@
         <v>2228</v>
       </c>
       <c r="C300" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D300" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E300">
         <v>22</v>
@@ -9198,10 +9204,10 @@
         <v>2229</v>
       </c>
       <c r="C301" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D301" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="E301">
         <v>22</v>
@@ -9215,10 +9221,10 @@
         <v>2245</v>
       </c>
       <c r="C302" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D302" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E302">
         <v>22</v>
@@ -9232,10 +9238,10 @@
         <v>2246</v>
       </c>
       <c r="C303" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D303" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E303">
         <v>22</v>
@@ -9249,10 +9255,10 @@
         <v>2301</v>
       </c>
       <c r="C304" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D304" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E304">
         <v>23</v>
@@ -9266,10 +9272,10 @@
         <v>2302</v>
       </c>
       <c r="C305" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D305" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E305">
         <v>23</v>
@@ -9283,10 +9289,10 @@
         <v>2303</v>
       </c>
       <c r="C306" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="D306" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E306">
         <v>23</v>
@@ -9300,10 +9306,10 @@
         <v>2305</v>
       </c>
       <c r="C307" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D307" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E307">
         <v>23</v>
@@ -9317,10 +9323,10 @@
         <v>2309</v>
       </c>
       <c r="C308" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="D308" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="E308">
         <v>23</v>
@@ -9334,10 +9340,10 @@
         <v>2310</v>
       </c>
       <c r="C309" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D309" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E309">
         <v>23</v>
@@ -9351,10 +9357,10 @@
         <v>2401</v>
       </c>
       <c r="C310" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D310" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E310">
         <v>24</v>
@@ -9368,10 +9374,10 @@
         <v>2404</v>
       </c>
       <c r="C311" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D311" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E311">
         <v>24</v>
@@ -9385,10 +9391,10 @@
         <v>2413</v>
       </c>
       <c r="C312" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D312" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E312">
         <v>24</v>
@@ -9402,10 +9408,10 @@
         <v>2415</v>
       </c>
       <c r="C313" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D313" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E313">
         <v>24</v>
@@ -9419,10 +9425,10 @@
         <v>2418</v>
       </c>
       <c r="C314" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D314" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E314">
         <v>24</v>
@@ -9436,10 +9442,10 @@
         <v>2419</v>
       </c>
       <c r="C315" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D315" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E315">
         <v>24</v>
@@ -9453,10 +9459,10 @@
         <v>2422</v>
       </c>
       <c r="C316" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D316" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E316">
         <v>24</v>
@@ -9470,10 +9476,10 @@
         <v>2425</v>
       </c>
       <c r="C317" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D317" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E317">
         <v>24</v>
@@ -9487,10 +9493,10 @@
         <v>2426</v>
       </c>
       <c r="C318" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D318" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E318">
         <v>24</v>
@@ -9504,10 +9510,10 @@
         <v>2427</v>
       </c>
       <c r="C319" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="D319" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E319">
         <v>24</v>
@@ -9521,10 +9527,10 @@
         <v>2501</v>
       </c>
       <c r="C320" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D320" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E320">
         <v>25</v>
@@ -9538,10 +9544,10 @@
         <v>2502</v>
       </c>
       <c r="C321" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="D321" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E321">
         <v>25</v>
@@ -9555,10 +9561,10 @@
         <v>2504</v>
       </c>
       <c r="C322" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D322" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E322">
         <v>25</v>
@@ -9572,10 +9578,10 @@
         <v>2506</v>
       </c>
       <c r="C323" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D323" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E323">
         <v>25</v>
@@ -9589,10 +9595,10 @@
         <v>2507</v>
       </c>
       <c r="C324" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D324" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E324">
         <v>25</v>
@@ -9606,10 +9612,10 @@
         <v>2512</v>
       </c>
       <c r="C325" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="D325" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E325">
         <v>25</v>
@@ -9623,10 +9629,10 @@
         <v>2601</v>
       </c>
       <c r="C326" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="D326" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="E326">
         <v>26</v>
@@ -9640,10 +9646,10 @@
         <v>2602</v>
       </c>
       <c r="C327" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D327" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E327">
         <v>26</v>
@@ -9657,10 +9663,10 @@
         <v>2604</v>
       </c>
       <c r="C328" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D328" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="E328">
         <v>26</v>
@@ -9674,10 +9680,10 @@
         <v>2607</v>
       </c>
       <c r="C329" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D329" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="E329">
         <v>26</v>
@@ -9691,10 +9697,10 @@
         <v>2609</v>
       </c>
       <c r="C330" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D330" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E330">
         <v>26</v>
@@ -9708,10 +9714,10 @@
         <v>2618</v>
       </c>
       <c r="C331" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D331" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="E331">
         <v>26</v>
@@ -9725,10 +9731,10 @@
         <v>2626</v>
       </c>
       <c r="C332" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="D332" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="E332">
         <v>26</v>
@@ -9742,10 +9748,10 @@
         <v>2632</v>
       </c>
       <c r="C333" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D333" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="E333">
         <v>26</v>
@@ -9759,10 +9765,10 @@
         <v>2633</v>
       </c>
       <c r="C334" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D334" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="E334">
         <v>26</v>
@@ -9776,10 +9782,10 @@
         <v>2635</v>
       </c>
       <c r="C335" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D335" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="E335">
         <v>26</v>
@@ -9793,10 +9799,10 @@
         <v>2636</v>
       </c>
       <c r="C336" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D336" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E336">
         <v>26</v>
@@ -9810,10 +9816,10 @@
         <v>2638</v>
       </c>
       <c r="C337" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="D337" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="E337">
         <v>26</v>
@@ -9827,10 +9833,10 @@
         <v>2643</v>
       </c>
       <c r="C338" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D338" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="E338">
         <v>26</v>
@@ -9844,10 +9850,10 @@
         <v>2644</v>
       </c>
       <c r="C339" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="D339" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E339">
         <v>26</v>
@@ -9861,10 +9867,10 @@
         <v>2646</v>
       </c>
       <c r="C340" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D340" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="E340">
         <v>26</v>
@@ -9878,10 +9884,10 @@
         <v>2647</v>
       </c>
       <c r="C341" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D341" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="E341">
         <v>26</v>
@@ -9895,10 +9901,10 @@
         <v>2648</v>
       </c>
       <c r="C342" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D342" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="E342">
         <v>26</v>
@@ -9912,10 +9918,10 @@
         <v>2652</v>
       </c>
       <c r="C343" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="D343" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="E343">
         <v>26</v>
@@ -9929,10 +9935,10 @@
         <v>2658</v>
       </c>
       <c r="C344" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D344" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E344">
         <v>26</v>
@@ -9946,10 +9952,10 @@
         <v>2701</v>
       </c>
       <c r="C345" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D345" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="E345">
         <v>27</v>
@@ -9963,10 +9969,10 @@
         <v>2705</v>
       </c>
       <c r="C346" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D346" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E346">
         <v>27</v>
@@ -9980,10 +9986,10 @@
         <v>2706</v>
       </c>
       <c r="C347" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D347" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E347">
         <v>27</v>
@@ -9997,10 +10003,10 @@
         <v>2707</v>
       </c>
       <c r="C348" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D348" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="E348">
         <v>27</v>
@@ -10014,10 +10020,10 @@
         <v>2711</v>
       </c>
       <c r="C349" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="D349" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E349">
         <v>27</v>
@@ -10031,10 +10037,10 @@
         <v>2712</v>
       </c>
       <c r="C350" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D350" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="E350">
         <v>27</v>
@@ -10048,10 +10054,10 @@
         <v>2716</v>
       </c>
       <c r="C351" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="D351" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="E351">
         <v>27</v>
@@ -10065,10 +10071,10 @@
         <v>2717</v>
       </c>
       <c r="C352" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="D352" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="E352">
         <v>27</v>
@@ -10082,10 +10088,10 @@
         <v>2719</v>
       </c>
       <c r="C353" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="D353" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E353">
         <v>27</v>
@@ -10099,10 +10105,10 @@
         <v>2722</v>
       </c>
       <c r="C354" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D354" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E354">
         <v>27</v>
@@ -10116,10 +10122,10 @@
         <v>2801</v>
       </c>
       <c r="C355" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D355" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="E355">
         <v>28</v>
@@ -10133,10 +10139,10 @@
         <v>2803</v>
       </c>
       <c r="C356" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="D356" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="E356">
         <v>28</v>
@@ -10150,10 +10156,10 @@
         <v>2804</v>
       </c>
       <c r="C357" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D357" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="E357">
         <v>28</v>
@@ -10167,10 +10173,10 @@
         <v>2807</v>
       </c>
       <c r="C358" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D358" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="E358">
         <v>28</v>
@@ -10184,10 +10190,10 @@
         <v>2809</v>
       </c>
       <c r="C359" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D359" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E359">
         <v>28</v>
@@ -10201,10 +10207,10 @@
         <v>2811</v>
       </c>
       <c r="C360" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D360" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E360">
         <v>28</v>
@@ -10218,10 +10224,10 @@
         <v>2816</v>
       </c>
       <c r="C361" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="D361" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E361">
         <v>28</v>
@@ -10235,10 +10241,10 @@
         <v>2817</v>
       </c>
       <c r="C362" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D362" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="E362">
         <v>28</v>
@@ -10252,10 +10258,10 @@
         <v>2820</v>
       </c>
       <c r="C363" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D363" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E363">
         <v>28</v>
@@ -10269,10 +10275,10 @@
         <v>2821</v>
       </c>
       <c r="C364" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D364" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E364">
         <v>28</v>
@@ -10286,10 +10292,10 @@
         <v>2822</v>
       </c>
       <c r="C365" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D365" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E365">
         <v>28</v>
@@ -10303,10 +10309,10 @@
         <v>2824</v>
       </c>
       <c r="C366" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D366" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="E366">
         <v>28</v>
@@ -10320,10 +10326,10 @@
         <v>2841</v>
       </c>
       <c r="C367" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D367" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="E367">
         <v>28</v>
@@ -10337,10 +10343,10 @@
         <v>2842</v>
       </c>
       <c r="C368" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D368" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="E368">
         <v>28</v>
@@ -10354,10 +10360,10 @@
         <v>2847</v>
       </c>
       <c r="C369" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="D369" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="E369">
         <v>28</v>
@@ -10371,10 +10377,10 @@
         <v>2901</v>
       </c>
       <c r="C370" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D370" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="E370">
         <v>29</v>
@@ -10388,10 +10394,10 @@
         <v>2902</v>
       </c>
       <c r="C371" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D371" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="E371">
         <v>29</v>
@@ -10405,10 +10411,10 @@
         <v>2903</v>
       </c>
       <c r="C372" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="D372" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="E372">
         <v>29</v>
@@ -10422,10 +10428,10 @@
         <v>2906</v>
       </c>
       <c r="C373" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="D373" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E373">
         <v>29</v>
@@ -10439,10 +10445,10 @@
         <v>2907</v>
       </c>
       <c r="C374" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D374" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E374">
         <v>29</v>
@@ -10456,10 +10462,10 @@
         <v>2910</v>
       </c>
       <c r="C375" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="D375" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E375">
         <v>29</v>
@@ -10473,10 +10479,10 @@
         <v>2912</v>
       </c>
       <c r="C376" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D376" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="E376">
         <v>29</v>
@@ -10490,10 +10496,10 @@
         <v>2917</v>
       </c>
       <c r="C377" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="D377" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="E377">
         <v>29</v>
@@ -10507,10 +10513,10 @@
         <v>2918</v>
       </c>
       <c r="C378" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D378" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="E378">
         <v>29</v>
@@ -10524,10 +10530,10 @@
         <v>2922</v>
       </c>
       <c r="C379" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D379" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E379">
         <v>29</v>
@@ -10541,10 +10547,10 @@
         <v>2923</v>
       </c>
       <c r="C380" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D380" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E380">
         <v>29</v>
@@ -10558,10 +10564,10 @@
         <v>2924</v>
       </c>
       <c r="C381" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D381" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="E381">
         <v>29</v>
@@ -10575,10 +10581,10 @@
         <v>2926</v>
       </c>
       <c r="C382" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D382" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="E382">
         <v>29</v>
@@ -10592,10 +10598,10 @@
         <v>2927</v>
       </c>
       <c r="C383" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="D383" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E383">
         <v>29</v>
@@ -10609,10 +10615,10 @@
         <v>2930</v>
       </c>
       <c r="C384" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D384" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="E384">
         <v>29</v>
@@ -10626,10 +10632,10 @@
         <v>2931</v>
       </c>
       <c r="C385" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D385" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E385">
         <v>29</v>
@@ -10643,10 +10649,10 @@
         <v>3001</v>
       </c>
       <c r="C386" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D386" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E386">
         <v>30</v>
@@ -10660,10 +10666,10 @@
         <v>3003</v>
       </c>
       <c r="C387" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D387" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="E387">
         <v>30</v>
@@ -10677,10 +10683,10 @@
         <v>3004</v>
       </c>
       <c r="C388" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D388" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E388">
         <v>30</v>
@@ -10694,10 +10700,10 @@
         <v>3011</v>
       </c>
       <c r="C389" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="D389" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="E389">
         <v>30</v>
@@ -10711,10 +10717,10 @@
         <v>3013</v>
       </c>
       <c r="C390" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="D390" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E390">
         <v>30</v>
@@ -10728,10 +10734,10 @@
         <v>3013</v>
       </c>
       <c r="C391" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D391" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E391">
         <v>30</v>
@@ -10745,10 +10751,10 @@
         <v>3014</v>
       </c>
       <c r="C392" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="D392" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="E392">
         <v>30</v>
@@ -10762,10 +10768,10 @@
         <v>3015</v>
       </c>
       <c r="C393" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="D393" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="E393">
         <v>30</v>
@@ -10779,10 +10785,10 @@
         <v>3016</v>
       </c>
       <c r="C394" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="D394" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E394">
         <v>30</v>
@@ -10796,10 +10802,10 @@
         <v>3019</v>
       </c>
       <c r="C395" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="D395" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E395">
         <v>30</v>
@@ -10813,10 +10819,10 @@
         <v>3021</v>
       </c>
       <c r="C396" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D396" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E396">
         <v>30</v>
@@ -10830,10 +10836,10 @@
         <v>3101</v>
       </c>
       <c r="C397" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="D397" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E397">
         <v>31</v>
@@ -10847,10 +10853,10 @@
         <v>3102</v>
       </c>
       <c r="C398" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="D398" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E398">
         <v>31</v>
@@ -10864,10 +10870,10 @@
         <v>3103</v>
       </c>
       <c r="C399" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="D399" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E399">
         <v>31</v>
@@ -10881,10 +10887,10 @@
         <v>3105</v>
       </c>
       <c r="C400" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="D400" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="E400">
         <v>31</v>
@@ -10898,10 +10904,10 @@
         <v>3106</v>
       </c>
       <c r="C401" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D401" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E401">
         <v>31</v>
@@ -10915,10 +10921,10 @@
         <v>3107</v>
       </c>
       <c r="C402" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D402" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E402">
         <v>31</v>
@@ -10932,10 +10938,10 @@
         <v>3109</v>
       </c>
       <c r="C403" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D403" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E403">
         <v>31</v>
@@ -10949,10 +10955,10 @@
         <v>3111</v>
       </c>
       <c r="C404" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D404" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E404">
         <v>31</v>
@@ -10966,10 +10972,10 @@
         <v>3124</v>
       </c>
       <c r="C405" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D405" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E405">
         <v>31</v>
@@ -10983,10 +10989,10 @@
         <v>3201</v>
       </c>
       <c r="C406" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D406" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E406">
         <v>32</v>
@@ -11000,10 +11006,10 @@
         <v>3202</v>
       </c>
       <c r="C407" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D407" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E407">
         <v>32</v>
@@ -11017,10 +11023,10 @@
         <v>3203</v>
       </c>
       <c r="C408" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D408" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E408">
         <v>32</v>
@@ -11034,10 +11040,10 @@
         <v>3204</v>
       </c>
       <c r="C409" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D409" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E409">
         <v>32</v>
@@ -11051,10 +11057,10 @@
         <v>3205</v>
       </c>
       <c r="C410" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D410" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E410">
         <v>32</v>
@@ -11068,10 +11074,10 @@
         <v>3206</v>
       </c>
       <c r="C411" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="D411" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="E411">
         <v>32</v>
@@ -11085,10 +11091,10 @@
         <v>3207</v>
       </c>
       <c r="C412" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D412" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E412">
         <v>32</v>
@@ -11102,10 +11108,10 @@
         <v>3208</v>
       </c>
       <c r="C413" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="D413" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E413">
         <v>32</v>
@@ -11119,10 +11125,10 @@
         <v>3301</v>
       </c>
       <c r="C414" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="D414" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E414">
         <v>33</v>
@@ -11136,10 +11142,10 @@
         <v>3302</v>
       </c>
       <c r="C415" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D415" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E415">
         <v>33</v>
@@ -11153,10 +11159,10 @@
         <v>3302</v>
       </c>
       <c r="C416" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="D416" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="E416">
         <v>33</v>
@@ -11170,10 +11176,10 @@
         <v>3306</v>
       </c>
       <c r="C417" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="D417" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="E417">
         <v>33</v>
@@ -11187,10 +11193,10 @@
         <v>3401</v>
       </c>
       <c r="C418" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="D418" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="E418">
         <v>34</v>
@@ -11204,10 +11210,10 @@
         <v>3402</v>
       </c>
       <c r="C419" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="D419" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="E419">
         <v>34</v>
@@ -11221,10 +11227,10 @@
         <v>3403</v>
       </c>
       <c r="C420" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D420" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E420">
         <v>34</v>
@@ -11238,10 +11244,10 @@
         <v>3404</v>
       </c>
       <c r="C421" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D421" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E421">
         <v>34</v>
@@ -11255,10 +11261,10 @@
         <v>3408</v>
       </c>
       <c r="C422" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D422" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E422">
         <v>34</v>
@@ -11272,10 +11278,10 @@
         <v>3409</v>
       </c>
       <c r="C423" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D423" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E423">
         <v>34</v>
@@ -11289,10 +11295,10 @@
         <v>3411</v>
       </c>
       <c r="C424" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="D424" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="E424">
         <v>34</v>
@@ -11306,10 +11312,10 @@
         <v>3413</v>
       </c>
       <c r="C425" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D425" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E425">
         <v>34</v>
@@ -11323,10 +11329,10 @@
         <v>3415</v>
       </c>
       <c r="C426" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D426" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E426">
         <v>34</v>
@@ -11340,10 +11346,10 @@
         <v>3431</v>
       </c>
       <c r="C427" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D427" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E427">
         <v>34</v>
@@ -11357,10 +11363,10 @@
         <v>3501</v>
       </c>
       <c r="C428" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D428" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="E428">
         <v>35</v>
@@ -11374,10 +11380,10 @@
         <v>3502</v>
       </c>
       <c r="C429" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D429" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="E429">
         <v>35</v>
@@ -11391,10 +11397,10 @@
         <v>3504</v>
       </c>
       <c r="C430" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="D430" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="E430">
         <v>35</v>
@@ -11408,10 +11414,10 @@
         <v>3505</v>
       </c>
       <c r="C431" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D431" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E431">
         <v>35</v>
@@ -11425,10 +11431,10 @@
         <v>3507</v>
       </c>
       <c r="C432" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D432" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="E432">
         <v>35</v>
@@ -11442,10 +11448,10 @@
         <v>3509</v>
       </c>
       <c r="C433" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D433" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="E433">
         <v>35</v>
@@ -11459,10 +11465,10 @@
         <v>3514</v>
       </c>
       <c r="C434" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D434" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E434">
         <v>35</v>
@@ -11476,10 +11482,10 @@
         <v>3523</v>
       </c>
       <c r="C435" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D435" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E435">
         <v>35</v>
@@ -11493,10 +11499,10 @@
         <v>3531</v>
       </c>
       <c r="C436" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="D436" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E436">
         <v>35</v>
@@ -11510,10 +11516,10 @@
         <v>3601</v>
       </c>
       <c r="C437" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="D437" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E437">
         <v>36</v>
@@ -11527,10 +11533,10 @@
         <v>3602</v>
       </c>
       <c r="C438" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="D438" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E438">
         <v>36</v>
@@ -11544,10 +11550,10 @@
         <v>3603</v>
       </c>
       <c r="C439" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="D439" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="E439">
         <v>36</v>
@@ -11561,10 +11567,10 @@
         <v>3605</v>
       </c>
       <c r="C440" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D440" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E440">
         <v>36</v>
@@ -11578,10 +11584,10 @@
         <v>3608</v>
       </c>
       <c r="C441" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D441" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E441">
         <v>36</v>
@@ -11595,10 +11601,10 @@
         <v>3613</v>
       </c>
       <c r="C442" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="D442" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="E442">
         <v>36</v>
@@ -11612,10 +11618,10 @@
         <v>3616</v>
       </c>
       <c r="C443" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D443" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="E443">
         <v>36</v>
@@ -11629,10 +11635,10 @@
         <v>3701</v>
       </c>
       <c r="C444" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="D444" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="E444">
         <v>37</v>
@@ -11646,10 +11652,10 @@
         <v>3801</v>
       </c>
       <c r="C445" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D445" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="E445">
         <v>38</v>
@@ -11663,10 +11669,10 @@
         <v>3802</v>
       </c>
       <c r="C446" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D446" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E446">
         <v>38</v>
@@ -11680,10 +11686,10 @@
         <v>3803</v>
       </c>
       <c r="C447" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D447" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="E447">
         <v>38</v>
@@ -11697,10 +11703,10 @@
         <v>3804</v>
       </c>
       <c r="C448" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D448" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E448">
         <v>38</v>
@@ -11714,10 +11720,10 @@
         <v>3806</v>
       </c>
       <c r="C449" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="D449" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E449">
         <v>38</v>
@@ -11731,10 +11737,10 @@
         <v>3809</v>
       </c>
       <c r="C450" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D450" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E450">
         <v>38</v>
@@ -11748,10 +11754,10 @@
         <v>3811</v>
       </c>
       <c r="C451" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D451" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="E451">
         <v>38</v>
@@ -11765,10 +11771,10 @@
         <v>3813</v>
       </c>
       <c r="C452" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D452" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="E452">
         <v>38</v>
@@ -11782,10 +11788,10 @@
         <v>3901</v>
       </c>
       <c r="C453" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="D453" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="E453">
         <v>39</v>
@@ -11799,10 +11805,10 @@
         <v>3902</v>
       </c>
       <c r="C454" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D454" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E454">
         <v>39</v>
@@ -11816,10 +11822,10 @@
         <v>3904</v>
       </c>
       <c r="C455" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="D455" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E455">
         <v>39</v>
@@ -11833,10 +11839,10 @@
         <v>3906</v>
       </c>
       <c r="C456" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="D456" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="E456">
         <v>39</v>
@@ -11850,10 +11856,10 @@
         <v>3908</v>
       </c>
       <c r="C457" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D457" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="E457">
         <v>39</v>
@@ -11867,10 +11873,10 @@
         <v>3911</v>
       </c>
       <c r="C458" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D458" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E458">
         <v>39</v>
@@ -11884,10 +11890,10 @@
         <v>3913</v>
       </c>
       <c r="C459" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D459" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="E459">
         <v>39</v>
@@ -11901,10 +11907,10 @@
         <v>3914</v>
       </c>
       <c r="C460" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="D460" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="E460">
         <v>39</v>
@@ -11918,10 +11924,10 @@
         <v>3918</v>
       </c>
       <c r="C461" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D461" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E461">
         <v>39</v>
@@ -11935,10 +11941,10 @@
         <v>3926</v>
       </c>
       <c r="C462" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D462" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E462">
         <v>39</v>
@@ -11952,10 +11958,10 @@
         <v>3927</v>
       </c>
       <c r="C463" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="D463" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="E463">
         <v>39</v>
@@ -11969,10 +11975,10 @@
         <v>3927</v>
       </c>
       <c r="C464" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D464" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="E464">
         <v>39</v>
@@ -11986,10 +11992,10 @@
         <v>3928</v>
       </c>
       <c r="C465" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="D465" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="E465">
         <v>39</v>
@@ -12003,10 +12009,10 @@
         <v>4001</v>
       </c>
       <c r="C466" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="D466" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E466">
         <v>40</v>
@@ -12020,10 +12026,10 @@
         <v>4003</v>
       </c>
       <c r="C467" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="D467" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="E467">
         <v>40</v>
@@ -12037,10 +12043,10 @@
         <v>4005</v>
       </c>
       <c r="C468" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D468" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="E468">
         <v>40</v>
@@ -12054,10 +12060,10 @@
         <v>4006</v>
       </c>
       <c r="C469" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D469" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="E469">
         <v>40</v>
@@ -12071,10 +12077,10 @@
         <v>4008</v>
       </c>
       <c r="C470" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D470" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E470">
         <v>40</v>
@@ -12088,10 +12094,10 @@
         <v>4011</v>
       </c>
       <c r="C471" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="D471" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E471">
         <v>40</v>
@@ -12105,10 +12111,10 @@
         <v>4013</v>
       </c>
       <c r="C472" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="D472" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="E472">
         <v>40</v>
@@ -12122,10 +12128,10 @@
         <v>4016</v>
       </c>
       <c r="C473" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="D473" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E473">
         <v>40</v>
@@ -12139,10 +12145,10 @@
         <v>4101</v>
       </c>
       <c r="C474" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="D474" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E474">
         <v>41</v>
@@ -12156,10 +12162,10 @@
         <v>4102</v>
       </c>
       <c r="C475" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="D475" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E475">
         <v>41</v>
@@ -12173,10 +12179,10 @@
         <v>4104</v>
       </c>
       <c r="C476" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D476" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="E476">
         <v>41</v>
@@ -12190,10 +12196,10 @@
         <v>4105</v>
       </c>
       <c r="C477" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="D477" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="E477">
         <v>41</v>
@@ -12207,10 +12213,10 @@
         <v>4108</v>
       </c>
       <c r="C478" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="D478" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="E478">
         <v>41</v>
@@ -12224,10 +12230,10 @@
         <v>4110</v>
       </c>
       <c r="C479" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D479" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="E479">
         <v>41</v>
@@ -12241,10 +12247,10 @@
         <v>4112</v>
       </c>
       <c r="C480" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D480" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="E480">
         <v>41</v>
@@ -12258,10 +12264,10 @@
         <v>4114</v>
       </c>
       <c r="C481" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="D481" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="E481">
         <v>41</v>
@@ -12275,10 +12281,10 @@
         <v>4115</v>
       </c>
       <c r="C482" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="D482" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E482">
         <v>41</v>
@@ -12292,10 +12298,10 @@
         <v>4116</v>
       </c>
       <c r="C483" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="D483" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E483">
         <v>41</v>
@@ -12309,10 +12315,10 @@
         <v>4201</v>
       </c>
       <c r="C484" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="D484" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E484">
         <v>42</v>
@@ -12326,10 +12332,10 @@
         <v>4208</v>
       </c>
       <c r="C485" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="D485" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="E485">
         <v>42</v>
@@ -12343,10 +12349,10 @@
         <v>4209</v>
       </c>
       <c r="C486" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="D486" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E486">
         <v>42</v>
@@ -12360,10 +12366,10 @@
         <v>4210</v>
       </c>
       <c r="C487" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D487" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E487">
         <v>42</v>
@@ -12377,10 +12383,10 @@
         <v>4214</v>
       </c>
       <c r="C488" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D488" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E488">
         <v>42</v>
@@ -12394,10 +12400,10 @@
         <v>4215</v>
       </c>
       <c r="C489" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="D489" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="E489">
         <v>42</v>
@@ -12411,10 +12417,10 @@
         <v>4217</v>
       </c>
       <c r="C490" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D490" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E490">
         <v>42</v>
@@ -12428,10 +12434,10 @@
         <v>4218</v>
       </c>
       <c r="C491" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="D491" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E491">
         <v>42</v>
@@ -12445,10 +12451,10 @@
         <v>4219</v>
       </c>
       <c r="C492" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D492" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="E492">
         <v>42</v>
@@ -12462,10 +12468,10 @@
         <v>4224</v>
       </c>
       <c r="C493" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D493" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E493">
         <v>42</v>
@@ -12479,10 +12485,10 @@
         <v>4301</v>
       </c>
       <c r="C494" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D494" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E494">
         <v>43</v>
@@ -12496,10 +12502,10 @@
         <v>4302</v>
       </c>
       <c r="C495" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="D495" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E495">
         <v>43</v>
@@ -12513,10 +12519,10 @@
         <v>4303</v>
       </c>
       <c r="C496" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="D496" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E496">
         <v>43</v>
@@ -12530,10 +12536,10 @@
         <v>4306</v>
       </c>
       <c r="C497" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="D497" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="E497">
         <v>43</v>
@@ -12547,10 +12553,10 @@
         <v>4308</v>
       </c>
       <c r="C498" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="D498" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="E498">
         <v>43</v>
@@ -12564,10 +12570,10 @@
         <v>4310</v>
       </c>
       <c r="C499" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D499" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="E499">
         <v>43</v>
@@ -12581,10 +12587,10 @@
         <v>4314</v>
       </c>
       <c r="C500" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D500" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E500">
         <v>43</v>
@@ -12598,10 +12604,10 @@
         <v>4315</v>
       </c>
       <c r="C501" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D501" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="E501">
         <v>43</v>
@@ -12615,10 +12621,10 @@
         <v>4317</v>
       </c>
       <c r="C502" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D502" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="E502">
         <v>43</v>
@@ -12632,10 +12638,10 @@
         <v>4318</v>
       </c>
       <c r="C503" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D503" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="E503">
         <v>43</v>
@@ -12649,10 +12655,10 @@
         <v>4319</v>
       </c>
       <c r="C504" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D504" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E504">
         <v>43</v>
@@ -12666,10 +12672,10 @@
         <v>4323</v>
       </c>
       <c r="C505" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D505" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E505">
         <v>43</v>
@@ -12683,10 +12689,10 @@
         <v>4330</v>
       </c>
       <c r="C506" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D506" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="E506">
         <v>43</v>
@@ -12700,10 +12706,10 @@
         <v>4401</v>
       </c>
       <c r="C507" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="D507" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="E507">
         <v>44</v>
@@ -12717,10 +12723,10 @@
         <v>4402</v>
       </c>
       <c r="C508" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="D508" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E508">
         <v>44</v>
@@ -12734,10 +12740,10 @@
         <v>4403</v>
       </c>
       <c r="C509" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="D509" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="E509">
         <v>44</v>
@@ -12751,10 +12757,10 @@
         <v>4404</v>
       </c>
       <c r="C510" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="D510" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="E510">
         <v>44</v>
@@ -12768,10 +12774,10 @@
         <v>4405</v>
       </c>
       <c r="C511" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D511" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E511">
         <v>44</v>
@@ -12785,10 +12791,10 @@
         <v>4407</v>
       </c>
       <c r="C512" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="D512" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="E512">
         <v>44</v>
@@ -12802,10 +12808,10 @@
         <v>4408</v>
       </c>
       <c r="C513" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="D513" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="E513">
         <v>44</v>
@@ -12819,10 +12825,10 @@
         <v>4410</v>
       </c>
       <c r="C514" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="D514" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="E514">
         <v>44</v>
@@ -12836,10 +12842,10 @@
         <v>4411</v>
       </c>
       <c r="C515" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D515" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="E515">
         <v>44</v>
@@ -12853,10 +12859,10 @@
         <v>4412</v>
       </c>
       <c r="C516" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D516" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="E516">
         <v>44</v>
@@ -12870,10 +12876,10 @@
         <v>4414</v>
       </c>
       <c r="C517" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="D517" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E517">
         <v>44</v>
@@ -12887,10 +12893,10 @@
         <v>4416</v>
       </c>
       <c r="C518" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="D518" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E518">
         <v>44</v>
@@ -12904,10 +12910,10 @@
         <v>4422</v>
       </c>
       <c r="C519" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="D519" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E519">
         <v>44</v>
@@ -12921,10 +12927,10 @@
         <v>4431</v>
       </c>
       <c r="C520" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D520" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E520">
         <v>44</v>
@@ -12938,10 +12944,10 @@
         <v>4501</v>
       </c>
       <c r="C521" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="D521" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E521">
         <v>45</v>
@@ -12955,10 +12961,10 @@
         <v>4502</v>
       </c>
       <c r="C522" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="D522" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E522">
         <v>45</v>
@@ -12972,10 +12978,10 @@
         <v>4503</v>
       </c>
       <c r="C523" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="D523" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E523">
         <v>45</v>
@@ -12989,10 +12995,10 @@
         <v>4505</v>
       </c>
       <c r="C524" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="D524" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E524">
         <v>45</v>
@@ -13006,10 +13012,10 @@
         <v>4506</v>
       </c>
       <c r="C525" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="D525" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E525">
         <v>45</v>
@@ -13023,10 +13029,10 @@
         <v>4507</v>
       </c>
       <c r="C526" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="D526" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E526">
         <v>45</v>
@@ -13040,10 +13046,10 @@
         <v>4510</v>
       </c>
       <c r="C527" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="D527" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E527">
         <v>45</v>
@@ -13057,10 +13063,10 @@
         <v>4601</v>
       </c>
       <c r="C528" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="D528" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E528">
         <v>46</v>
@@ -13074,10 +13080,10 @@
         <v>4604</v>
       </c>
       <c r="C529" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="D529" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E529">
         <v>46</v>
@@ -13091,10 +13097,10 @@
         <v>4609</v>
       </c>
       <c r="C530" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="D530" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E530">
         <v>46</v>
@@ -13108,10 +13114,10 @@
         <v>4614</v>
       </c>
       <c r="C531" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="D531" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E531">
         <v>46</v>
@@ -13125,10 +13131,10 @@
         <v>4619</v>
       </c>
       <c r="C532" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="D532" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E532">
         <v>46</v>
@@ -13142,10 +13148,10 @@
         <v>4622</v>
       </c>
       <c r="C533" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="D533" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E533">
         <v>46</v>
@@ -13159,10 +13165,10 @@
         <v>4623</v>
       </c>
       <c r="C534" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="D534" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E534">
         <v>46</v>
@@ -13176,10 +13182,10 @@
         <v>4625</v>
       </c>
       <c r="C535" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="D535" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E535">
         <v>46</v>
@@ -13193,10 +13199,10 @@
         <v>4701</v>
       </c>
       <c r="C536" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="D536" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E536">
         <v>47</v>
@@ -13210,10 +13216,10 @@
         <v>4702</v>
       </c>
       <c r="C537" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D537" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E537">
         <v>47</v>
@@ -13227,10 +13233,10 @@
         <v>4702</v>
       </c>
       <c r="C538" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="D538" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E538">
         <v>47</v>
@@ -13244,10 +13250,10 @@
         <v>4703</v>
       </c>
       <c r="C539" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D539" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E539">
         <v>47</v>
@@ -13261,10 +13267,10 @@
         <v>4704</v>
       </c>
       <c r="C540" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D540" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E540">
         <v>47</v>
@@ -13278,10 +13284,10 @@
         <v>4705</v>
       </c>
       <c r="C541" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D541" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E541">
         <v>47</v>
@@ -13295,10 +13301,10 @@
         <v>4706</v>
       </c>
       <c r="C542" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D542" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E542">
         <v>47</v>
@@ -13312,10 +13318,10 @@
         <v>4708</v>
       </c>
       <c r="C543" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D543" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E543">
         <v>47</v>
@@ -13329,10 +13335,10 @@
         <v>4710</v>
       </c>
       <c r="C544" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="D544" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E544">
         <v>47</v>
@@ -13346,10 +13352,10 @@
         <v>4713</v>
       </c>
       <c r="C545" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D545" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E545">
         <v>47</v>
@@ -13363,10 +13369,10 @@
         <v>4801</v>
       </c>
       <c r="C546" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="D546" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E546">
         <v>48</v>
@@ -13380,10 +13386,10 @@
         <v>4802</v>
       </c>
       <c r="C547" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="D547" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E547">
         <v>48</v>
@@ -13397,10 +13403,10 @@
         <v>4807</v>
       </c>
       <c r="C548" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="D548" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E548">
         <v>48</v>
@@ -13414,10 +13420,10 @@
         <v>4808</v>
       </c>
       <c r="C549" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="D549" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E549">
         <v>48</v>
@@ -13431,10 +13437,10 @@
         <v>4811</v>
       </c>
       <c r="C550" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="D550" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E550">
         <v>48</v>
@@ -13448,10 +13454,10 @@
         <v>4812</v>
       </c>
       <c r="C551" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D551" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E551">
         <v>48</v>
@@ -13465,10 +13471,10 @@
         <v>4814</v>
       </c>
       <c r="C552" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D552" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E552">
         <v>48</v>
@@ -13482,10 +13488,10 @@
         <v>4817</v>
       </c>
       <c r="C553" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="D553" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E553">
         <v>48</v>
@@ -13499,10 +13505,10 @@
         <v>4819</v>
       </c>
       <c r="C554" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="D554" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E554">
         <v>48</v>
@@ -13516,10 +13522,10 @@
         <v>4822</v>
       </c>
       <c r="C555" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D555" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E555">
         <v>48</v>
@@ -13533,10 +13539,10 @@
         <v>4825</v>
       </c>
       <c r="C556" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D556" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="E556">
         <v>48</v>
@@ -13550,10 +13556,10 @@
         <v>4827</v>
       </c>
       <c r="C557" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="D557" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E557">
         <v>48</v>
@@ -13567,10 +13573,10 @@
         <v>4828</v>
       </c>
       <c r="C558" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D558" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E558">
         <v>48</v>
